--- a/pro/YongXing/atom/final.xlsx
+++ b/pro/YongXing/atom/final.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3826,7 +3827,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3856,7 +3863,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3886,7 +3899,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3918,7 +3937,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4237,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F194" sqref="F194"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6264,7 +6289,7 @@
         <v>41.4</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C153" si="4">C124/2</f>
+        <f t="shared" ref="C139:C151" si="4">C124/2</f>
         <v>2.620961538461545</v>
       </c>
       <c r="D139">
@@ -7171,4 +7196,315 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>7.5124786324785999</v>
+      </c>
+      <c r="B1">
+        <v>16</v>
+      </c>
+      <c r="C1">
+        <v>7.0774786324786296</v>
+      </c>
+      <c r="D1">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="E1">
+        <v>1.8559214133697599</v>
+      </c>
+      <c r="F1">
+        <f>A1*1/36+B1*1/300+C1*1/72+D1*1/6+E1*1/18</f>
+        <v>0.60786279931826215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7.8261111111111097</v>
+      </c>
+      <c r="B2">
+        <v>41.4</v>
+      </c>
+      <c r="C2">
+        <v>5.24192307692309</v>
+      </c>
+      <c r="D2">
+        <v>0.97435897435897401</v>
+      </c>
+      <c r="E2">
+        <v>1.2621041077452</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F15" si="0">A2*1/36+B2*1/300+C2*1/72+D2*1/6+E2*1/18</f>
+        <v>0.6607065197560249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4.84170940170939</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>4.7533760683760704</v>
+      </c>
+      <c r="D3">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="E3">
+        <v>0.61951912872694004</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.48179151435779766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11.6144444444444</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>11.361068376068401</v>
+      </c>
+      <c r="D4">
+        <v>0.26190476190476197</v>
+      </c>
+      <c r="E4">
+        <v>1.44700227527975</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.64112254873518537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8.9927777777777802</v>
+      </c>
+      <c r="B5">
+        <v>17.823</v>
+      </c>
+      <c r="C5">
+        <v>8.5997863247862991</v>
+      </c>
+      <c r="D5">
+        <v>0.51219512195121997</v>
+      </c>
+      <c r="E5">
+        <v>1.3737389038688801</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.59033554110044473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5.6965384615384496</v>
+      </c>
+      <c r="B6">
+        <v>23.733333333333299</v>
+      </c>
+      <c r="C6">
+        <v>3.5470940170940102</v>
+      </c>
+      <c r="D6">
+        <v>0.97</v>
+      </c>
+      <c r="E6">
+        <v>1.8393812491233701</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.55046799912033861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5.0387179487179301</v>
+      </c>
+      <c r="B7">
+        <v>48.4</v>
+      </c>
+      <c r="C7">
+        <v>0.97371794871794803</v>
+      </c>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>2.7964545205515301</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.57018016567166563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2.4600000000000102</v>
+      </c>
+      <c r="B9">
+        <v>2.2352941176470602</v>
+      </c>
+      <c r="C9">
+        <v>0.42581196581193098</v>
+      </c>
+      <c r="D9">
+        <v>0.26552462526766601</v>
+      </c>
+      <c r="E9">
+        <v>0.25536173863311201</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.14013923627488456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2.0688888888888899</v>
+      </c>
+      <c r="B10">
+        <v>12.588235294117601</v>
+      </c>
+      <c r="C10">
+        <v>0.81405982905984298</v>
+      </c>
+      <c r="D10">
+        <v>0.36054421768707501</v>
+      </c>
+      <c r="E10">
+        <v>1.55209582270653E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.17168928503581957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3.6416666666666799</v>
+      </c>
+      <c r="B11">
+        <v>1.70588235294118</v>
+      </c>
+      <c r="C11">
+        <v>1.38726495726495</v>
+      </c>
+      <c r="D11">
+        <v>0.246696035242291</v>
+      </c>
+      <c r="E11">
+        <v>0.29031959396332002</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.18335612297312454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3.8483333333333301</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2.1232905982905699</v>
+      </c>
+      <c r="D12">
+        <v>8.3969465648855005E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.236722832607588</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.17020114143297005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="B13">
+        <v>6.2</v>
+      </c>
+      <c r="C13">
+        <v>0.73978632478630901</v>
+      </c>
+      <c r="D13">
+        <v>0.190687361419069</v>
+      </c>
+      <c r="E13">
+        <v>0.228287142190188</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.20096087820244288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4.0316666666666796</v>
+      </c>
+      <c r="B14">
+        <v>6.0588235294117601</v>
+      </c>
+      <c r="C14">
+        <v>1.51042735042734</v>
+      </c>
+      <c r="D14">
+        <v>0.31858407079646001</v>
+      </c>
+      <c r="E14">
+        <v>0.20539549384862099</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.21767318271904898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2.96722222222223</v>
+      </c>
+      <c r="B15">
+        <v>10.153846153846199</v>
+      </c>
+      <c r="C15">
+        <v>0.64850427350428697</v>
+      </c>
+      <c r="D15">
+        <v>0.73846153846153895</v>
+      </c>
+      <c r="E15">
+        <v>6.3707402129052806E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.25189222034620157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/pro/YongXing/atom/final.xlsx
+++ b/pro/YongXing/atom/final.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1433,6 +1433,774 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3593-40BD-829A-6131F1A1FC80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="422386704"/>
+        <c:axId val="422387032"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="422386704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422387032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="422387032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422386704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10420957475327461"/>
+          <c:y val="0.13611144760751059"/>
+          <c:w val="0.78841353856896146"/>
+          <c:h val="0.79788966283060758"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$189</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>甲锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$188:$O$188</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$189:$O$189</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.67379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45129999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF76-4802-866B-5806EBBB4270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$190</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>乙锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$188:$O$188</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$190:$O$190</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF76-4802-866B-5806EBBB4270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508706512"/>
+        <c:axId val="506906672"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="508706512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506906672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="506906672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508706512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$189</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>甲锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$188:$W$188</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$189:$W$189</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51739999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E87C-4A78-917A-67C35E26BB46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$190</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>乙锅炉房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$188:$W$188</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> EY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$190:$W$190</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4699999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E87C-4A78-917A-67C35E26BB46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1790,6 +2558,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
@@ -3306,6 +4154,1016 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3955,6 +5813,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F392536F-421D-43F6-BA77-1ED3C5405790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E142ED2-DBE1-49E9-AD14-B42C547FBD23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4262,8 +6196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB190"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="S197" sqref="S197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7202,7 +9136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
